--- a/TD/TP2/Dictionnaire de la source de données Production 1.xlsx
+++ b/TD/TP2/Dictionnaire de la source de données Production 1.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhubo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9bba5e43ad61f6d/Devoir/[INFO - M1 MIAGE - S2] CM Intégration de données/TD/TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652D69A-761E-4DB9-879F-2EDDCCF3BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E1AC10AA-457A-4AAB-8D8E-F10CEFBB129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401EA592-A70F-4C96-9663-6558DFB741C6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exporter la feuille de calcul" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
-  <si>
-    <t>Source de données</t>
-  </si>
-  <si>
-    <t>Colonne/Attribut</t>
-  </si>
-  <si>
-    <t>Type et format</t>
-  </si>
-  <si>
-    <t>Type de la BD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>列 / 属性</t>
+  </si>
+  <si>
+    <t>类型和格式</t>
+  </si>
+  <si>
+    <t>数据库类型</t>
   </si>
   <si>
     <t>SRC1_MAGASINS</t>
@@ -41,7 +53,7 @@
     <t>ADRCP</t>
   </si>
   <si>
-    <t>Nombre de 5 chiffres</t>
+    <t>长度为 5 的整数</t>
   </si>
   <si>
     <t>NUMBER(5,0)</t>
@@ -50,7 +62,7 @@
     <t>ADRVILLE</t>
   </si>
   <si>
-    <t>Chaîne de 30 car.</t>
+    <t>长度为 30 的字符串</t>
   </si>
   <si>
     <t>VARCHAR2(30)</t>
@@ -62,27 +74,27 @@
     <t>CA</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>整数</t>
   </si>
   <si>
     <t>NUMBER(38,0)</t>
   </si>
   <si>
+    <t>SRC1_CATEGORIES</t>
+  </si>
+  <si>
+    <t>CODEC</t>
+  </si>
+  <si>
     <t>SRC1_PRODUITS</t>
   </si>
   <si>
-    <t>CODEC</t>
-  </si>
-  <si>
-    <t>SRC1_CATEGORIES</t>
+    <t>SRC1_MARQUES</t>
   </si>
   <si>
     <t>CODEM</t>
   </si>
   <si>
-    <t>SRC1_MARQUES</t>
-  </si>
-  <si>
     <t>CODEP</t>
   </si>
   <si>
@@ -98,7 +110,7 @@
     <t>COUT</t>
   </si>
   <si>
-    <t>Float</t>
+    <t>实数</t>
   </si>
   <si>
     <t>FLOAT</t>
@@ -122,7 +134,7 @@
     <t>DESIGP</t>
   </si>
   <si>
-    <t>Chaîne de 50 car.</t>
+    <t>长度为 50 的字符串</t>
   </si>
   <si>
     <t>VARCHAR2(50)</t>
@@ -149,42 +161,13 @@
     <t>TEL</t>
   </si>
   <si>
-    <t>Chaîne de 10 car.</t>
+    <t>长度为 10 的字符串</t>
   </si>
   <si>
     <t>VARCHAR2(10)</t>
   </si>
   <si>
     <t>WEB</t>
-  </si>
-  <si>
-    <t>SELECT
-    table_name AS "Source de données",
-    column_name AS "Colonne/Attribut",
-    CASE
-        WHEN data_type = 'NUMBER'
-            THEN
-                CASE
-                    WHEN data_precision IS NULL THEN 'Nombre'
-                    WHEN data_scale IS NULL OR data_scale=0 THEN 'Nombre de ' || data_precision || ' chiffres'
-                    ELSE 'Nombre de ' || data_precision || ' chiffres, dont ' || data_scale || ' décimales'
-                END
-        WHEN data_type = 'VARCHAR2' THEN 'Chaîne de ' || data_length || ' car.'
-        ELSE INITCAP(data_type)
-    END AS "Type et format",
-    CASE
-        WHEN data_type = 'NUMBER'
-            THEN
-                CASE
-                    WHEN data_precision IS NULL THEN 'NUMBER(38,0)'
-                    WHEN data_scale IS NULL OR data_scale=0 THEN 'NUMBER(' || data_precision || ',0)'
-                    ELSE 'NUMBER(' || data_precision || ',' || data_scale || ')'
-                END
-        WHEN data_type = 'VARCHAR2' THEN 'VARCHAR2(' || data_length || ')'
-        ELSE data_type
-    END AS "Type de la BD"
-FROM USER_TAB_COLUMNS
-ORDER BY "Colonne/Attribut"</t>
   </si>
 </sst>
 </file>
@@ -243,8 +226,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,21 +570,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,10 +671,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -697,10 +685,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -711,7 +699,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -739,7 +727,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -753,7 +741,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -767,7 +755,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -781,7 +769,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -809,7 +797,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -823,7 +811,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -837,7 +825,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
@@ -879,7 +867,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>37</v>
@@ -973,24 +961,6 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
